--- a/صيدليات دكتور مصطفي طلعت_2026-01-06_17-46.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-06_17-46.xlsx
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>NEUROTON 30 TAB</t>
   </si>
   <si>
     <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
@@ -1796,11 +1799,11 @@
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1816,17 +1819,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1842,13 +1845,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1868,13 +1871,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -1894,17 +1897,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1920,13 +1923,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>7.0499999999999998</v>
+        <v>67</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -1938,7 +1941,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1946,17 +1949,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>89.099999999999994</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1972,17 +1975,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>-185</v>
+        <v>89.099999999999994</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -1998,17 +2001,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>71</v>
+        <v>-185</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2024,17 +2027,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>45.5</v>
+        <v>71</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2042,7 +2045,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2050,17 +2053,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>60</v>
+        <v>45.5</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2082,7 +2085,7 @@
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2102,13 +2105,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2128,17 +2131,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2154,17 +2157,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2180,13 +2183,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2198,7 +2201,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2206,17 +2209,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2224,7 +2227,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2232,17 +2235,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2250,7 +2253,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2258,17 +2261,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2284,13 +2287,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2310,13 +2313,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2328,7 +2331,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2336,17 +2339,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>85</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2354,7 +2357,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2362,17 +2365,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>190</v>
+        <v>42</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>9</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2388,13 +2391,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2414,13 +2417,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
@@ -2440,13 +2443,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>68.599999999999994</v>
+        <v>85</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2466,13 +2469,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>30</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2484,7 +2487,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2492,51 +2495,77 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="6">
+        <v>64</v>
+      </c>
+      <c t="s" r="B67" s="7">
+        <v>93</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c t="s" r="H67" s="8">
+        <v>92</v>
+      </c>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="9">
+        <v>70</v>
+      </c>
+      <c r="M67" s="9"/>
+      <c t="s" r="N67" s="7">
         <v>22</v>
       </c>
     </row>
-    <row r="67" ht="26.25" customHeight="1">
-      <c r="K67" s="10">
+    <row r="68" ht="25.5" customHeight="1">
+      <c r="K68" s="10">
         <v>2622.9200000000001</v>
       </c>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="11">
-        <v>93</v>
-      </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c t="s" r="F68" s="12">
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+    </row>
+    <row r="69" ht="17.25" customHeight="1">
+      <c t="s" r="A69" s="11">
         <v>94</v>
       </c>
-      <c r="G68" s="12"/>
-      <c r="H68" s="13"/>
-      <c t="s" r="I68" s="14">
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c t="s" r="F69" s="12">
         <v>95</v>
       </c>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="14"/>
-      <c r="N68" s="14"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="13"/>
+      <c t="s" r="I69" s="14">
+        <v>96</v>
+      </c>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="200">
+  <mergeCells count="203">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2733,10 +2762,13 @@
     <mergeCell ref="B66:G66"/>
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="I68:N68"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="I69:N69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
